--- a/db/data/phong.xlsx
+++ b/db/data/phong.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB007754-FAF3-48CD-A0BE-A7B893FDB7A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70906336-C41F-4EAB-AA41-63FB77C9F914}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ten</t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t>Nhà máy thủy điện Krông H'Năng</t>
+  </si>
+  <si>
+    <t>Hội đồng quản trị</t>
+  </si>
+  <si>
+    <t>HĐQT</t>
+  </si>
+  <si>
+    <t>Ban Kiểm soát</t>
+  </si>
+  <si>
+    <t>BKS</t>
+  </si>
+  <si>
+    <t>Ban Tổng giám đốc</t>
+  </si>
+  <si>
+    <t>B TGĐ</t>
   </si>
 </sst>
 </file>
@@ -388,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,10 +431,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -424,10 +442,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -435,10 +453,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -446,10 +464,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -457,10 +475,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -468,10 +486,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -479,13 +497,46 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/db/data/phong.xlsx
+++ b/db/data/phong.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70906336-C41F-4EAB-AA41-63FB77C9F914}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DA3BFB-E275-4F2A-A3A1-D723CAF85C1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,10 +475,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -486,10 +486,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>7</v>
